--- a/project/excel/no_corners.xlsx
+++ b/project/excel/no_corners.xlsx
@@ -4,25 +4,15 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Address" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FamilialRelationship" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="HasAliases" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NamedThing" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Organization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Person" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Registry" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Relationship" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Address1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="FamilialRelationship1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="HasAliases1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="NamedThing1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Organization1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Person1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Registry1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Relationship2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PersonCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NamedThing1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Person1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PersonCollection1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,17 +429,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>postal_code</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -458,120 +448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>FamilialRelationship_type</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FamilialRelationship_related to</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -603,221 +480,32 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>Person_primary_email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>mission_statement</t>
+          <t>birth_date</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>founding_date</t>
+          <t>age_in_years</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Person_primary_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>current_address</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_familial_relationships</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>registry__persons</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>registry__organizations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>FamilialRelationship_type</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FamilialRelationship_related to</t>
+          <t>vital_status</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"SIBLING_OF,PARENT_OF,CHILD_OF"</formula1>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"SIBLING_OF,PARENT_OF,CHILD_OF"</formula1>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -841,7 +529,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>hasAliases__aliases</t>
+          <t>personCollection__entries</t>
         </is>
       </c>
     </row>
@@ -856,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,11 +566,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
         </is>
       </c>
     </row>
@@ -923,22 +606,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>Person_primary_email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>mission_statement</t>
+          <t>birth_date</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>founding_date</t>
+          <t>age_in_years</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hasAliases__aliases</t>
+          <t>vital_status</t>
         </is>
       </c>
     </row>
@@ -953,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,160 +647,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Person_primary_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>current_address</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_familial_relationships</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>registry__persons</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>registry__organizations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>street</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>postal_code</t>
+          <t>personCollection__entries</t>
         </is>
       </c>
     </row>

--- a/project/excel/no_corners.xlsx
+++ b/project/excel/no_corners.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PersonCollection" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NamedThing1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Person1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="PersonCollection1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Biosample" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BiosampleCollection" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NamedThing" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Biosample1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BiosampleCollection1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NamedThing1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
           <t>description</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>well_pos</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -449,70 +454,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Person_primary_email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -529,7 +470,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>personCollection__entries</t>
+          <t>biosampleCollection__entries</t>
         </is>
       </c>
     </row>
@@ -538,7 +479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -574,13 +515,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,22 +547,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Person_primary_email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
+          <t>well_pos</t>
         </is>
       </c>
     </row>
@@ -630,7 +556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -647,7 +573,43 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>personCollection__entries</t>
+          <t>biosampleCollection__entries</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
